--- a/biology/Zoologie/Causus_resimus/Causus_resimus.xlsx
+++ b/biology/Zoologie/Causus_resimus/Causus_resimus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Causus resimus est une espèce de serpents de la famille des Viperidae[1]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Causus resimus est une espèce de serpents de la famille des Viperidae. 
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette espèce se rencontre[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cette espèce se rencontre :
 au Nigeria ;
 au Cameroun ;
 au Tchad ;
@@ -558,7 +572,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Peters, 1862 : Über die von dem so früh in Afrika verstorbenen Freiherrn von Barnim und Dr. Hartmann auf ihrer Reise durch Aegypten, Nubien und dem Sennâr gesammelten Amphibien. Monatsberichte der Königlich preussischen Akademie der Wissenschaften zu Berlin, vol. 1862, p. 271-279 (texte intégral).</t>
         </is>
